--- a/Report/Misc/Test Output/Simple Plane Test/Relative/Graphs.xlsx
+++ b/Report/Misc/Test Output/Simple Plane Test/Relative/Graphs.xlsx
@@ -425,7 +425,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -445,7 +445,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Rotation X Over Time</a:t>
+              <a:t>Rotation X Over Time (radians in terms of pi)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -490,37 +490,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.27824958856859</c:v>
+                  <c:v>0.406879481051744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5118318130308</c:v>
+                  <c:v>0.481231012334868</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.77515420056193</c:v>
+                  <c:v>0.565049131539544</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.05645571720212</c:v>
+                  <c:v>0.654590185284614</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.33882009386468</c:v>
+                  <c:v>0.744469557882428</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.60440082986657</c:v>
+                  <c:v>0.829006531731799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.83617212160901</c:v>
+                  <c:v>0.902781625227004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.01566417911967</c:v>
+                  <c:v>0.959915721624117</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.12926983600142</c:v>
+                  <c:v>0.99607752533598</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.16677268783162</c:v>
+                  <c:v>1.00801505383362</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.12373440342713</c:v>
+                  <c:v>0.994315542423283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,11 +535,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="76891402"/>
-        <c:axId val="83122552"/>
+        <c:axId val="51945704"/>
+        <c:axId val="7141597"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76891402"/>
+        <c:axId val="51945704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +576,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83122552"/>
+        <c:crossAx val="7141597"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83122552"/>
+        <c:axId val="7141597"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -620,7 +620,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76891402"/>
+        <c:crossAx val="51945704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -647,7 +647,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -667,7 +667,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Rotation Y Over Time</a:t>
+              <a:t>Rotation Y Over Time (radians in terms of pi)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -712,37 +712,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.26814588502842</c:v>
+                  <c:v>0.403663372327838</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.46000606255669</c:v>
+                  <c:v>0.464734363600065</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.64834165810974</c:v>
+                  <c:v>0.524683445584913</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.82502322010067</c:v>
+                  <c:v>0.580922933473018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9825095345287</c:v>
+                  <c:v>0.631052384294111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.11349779537442</c:v>
+                  <c:v>0.672747242695325</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.21082034273706</c:v>
+                  <c:v>0.703725971669444</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.27198507054986</c:v>
+                  <c:v>0.723195309217997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.29634234779483</c:v>
+                  <c:v>0.730948471365592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.28645298242801</c:v>
+                  <c:v>0.727800588601249</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.25126366104893</c:v>
+                  <c:v>0.716599479718188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,11 +757,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="73676269"/>
-        <c:axId val="10439933"/>
+        <c:axId val="32187143"/>
+        <c:axId val="46767341"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73676269"/>
+        <c:axId val="32187143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,14 +798,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10439933"/>
+        <c:crossAx val="46767341"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10439933"/>
+        <c:axId val="46767341"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +842,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73676269"/>
+        <c:crossAx val="32187143"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -869,7 +869,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -889,7 +889,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Rotation Z Over Time</a:t>
+              <a:t>Rotation Z Over Time (radians in terms of pi)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -934,37 +934,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.20596079123359</c:v>
+                  <c:v>0.383869242199677</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4267826335073</c:v>
+                  <c:v>0.454159017680719</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.68958806739381</c:v>
+                  <c:v>0.537812585429613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.97740691545334</c:v>
+                  <c:v>0.629428170196992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.26645021247099</c:v>
+                  <c:v>0.72143350917287</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.53810140472357</c:v>
+                  <c:v>0.807902769260479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.77815249326638</c:v>
+                  <c:v>0.884313403932835</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.96410959801848</c:v>
+                  <c:v>0.943505388781544</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.08422138849006</c:v>
+                  <c:v>0.981738159135884</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.12977685720643</c:v>
+                  <c:v>0.99623891519804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0944122260313</c:v>
+                  <c:v>0.984982003473754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,11 +979,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="96768939"/>
-        <c:axId val="92450572"/>
+        <c:axId val="18395948"/>
+        <c:axId val="79200935"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96768939"/>
+        <c:axId val="18395948"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,14 +1020,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92450572"/>
+        <c:crossAx val="79200935"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92450572"/>
+        <c:axId val="79200935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1064,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96768939"/>
+        <c:crossAx val="18395948"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1091,7 +1091,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1111,7 +1111,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Translation X Over Time</a:t>
+              <a:t>Translation X Over Time (mm)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1201,11 +1201,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="71490569"/>
-        <c:axId val="90973765"/>
+        <c:axId val="38519812"/>
+        <c:axId val="98868614"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71490569"/>
+        <c:axId val="38519812"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,14 +1242,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90973765"/>
+        <c:crossAx val="98868614"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90973765"/>
+        <c:axId val="98868614"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1277,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71490569"/>
+        <c:crossAx val="38519812"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1304,7 +1304,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1324,7 +1324,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Translation Y Over Time</a:t>
+              <a:t>Translation Y Over Time (mm)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1414,11 +1414,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="98689677"/>
-        <c:axId val="14486336"/>
+        <c:axId val="90665723"/>
+        <c:axId val="92652507"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98689677"/>
+        <c:axId val="90665723"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,14 +1455,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14486336"/>
+        <c:crossAx val="92652507"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14486336"/>
+        <c:axId val="92652507"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1499,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98689677"/>
+        <c:crossAx val="90665723"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1526,7 +1526,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1546,7 +1546,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Translation Z Over Time</a:t>
+              <a:t>Translation Z Over Time (mm)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1636,11 +1636,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="85516763"/>
-        <c:axId val="75942386"/>
+        <c:axId val="56549327"/>
+        <c:axId val="81056809"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85516763"/>
+        <c:axId val="56549327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,14 +1677,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75942386"/>
+        <c:crossAx val="81056809"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75942386"/>
+        <c:axId val="81056809"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,7 +1721,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85516763"/>
+        <c:crossAx val="56549327"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1748,7 +1748,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1858,11 +1858,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="24545282"/>
-        <c:axId val="62693166"/>
+        <c:axId val="18358319"/>
+        <c:axId val="51731720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24545282"/>
+        <c:axId val="18358319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1899,14 +1899,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62693166"/>
+        <c:crossAx val="51731720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62693166"/>
+        <c:axId val="51731720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24545282"/>
+        <c:crossAx val="18358319"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1970,7 +1970,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2080,11 +2080,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="99073096"/>
-        <c:axId val="18898352"/>
+        <c:axId val="63858332"/>
+        <c:axId val="31188535"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99073096"/>
+        <c:axId val="63858332"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,14 +2121,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18898352"/>
+        <c:crossAx val="31188535"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18898352"/>
+        <c:axId val="31188535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,7 +2165,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99073096"/>
+        <c:crossAx val="63858332"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2192,7 +2192,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2302,11 +2302,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="88976142"/>
-        <c:axId val="47620713"/>
+        <c:axId val="39704376"/>
+        <c:axId val="60490105"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88976142"/>
+        <c:axId val="39704376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,14 +2343,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47620713"/>
+        <c:crossAx val="60490105"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47620713"/>
+        <c:axId val="60490105"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,7 +2387,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88976142"/>
+        <c:crossAx val="39704376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2414,7 +2414,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2434,7 +2434,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Error Over Time</a:t>
+              <a:t>Error Over Time (mm)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2524,11 +2524,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="28821991"/>
-        <c:axId val="30393227"/>
+        <c:axId val="44256794"/>
+        <c:axId val="85853505"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="28821991"/>
+        <c:axId val="44256794"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,14 +2565,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30393227"/>
+        <c:crossAx val="85853505"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30393227"/>
+        <c:axId val="85853505"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,7 +2609,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28821991"/>
+        <c:crossAx val="44256794"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2670,16 +2670,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>809640</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>72720</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:colOff>62640</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2687,7 +2687,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="28282680" y="3900960"/>
+        <a:off x="28272600" y="4073040"/>
         <a:ext cx="5755320" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2701,15 +2701,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>779400</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:colOff>808920</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>42120</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:colOff>71640</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2717,7 +2717,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="28242360" y="7305840"/>
+        <a:off x="28271880" y="7659360"/>
         <a:ext cx="5765040" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2949,7 +2949,7 @@
   <dimension ref="B2:W57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M63" activeCellId="0" sqref="M63"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3020,39 +3020,39 @@
         <v>4.955229</v>
       </c>
       <c r="K4" s="0" t="n">
-        <f aca="false">COS(G5) - SIN(H5) + SIN(G6) + COS(H6)</f>
-        <v>1.27824958856859</v>
+        <f aca="false"> (COS(G5) - SIN(H5) + SIN(G6) + COS(H6)) / PI()</f>
+        <v>0.406879481051744</v>
       </c>
       <c r="L4" s="0" t="n">
-        <f aca="false">COS(F4) + SIN(H4) - SIN(F6) + COS(H6)</f>
-        <v>1.26814588502842</v>
+        <f aca="false"> (COS(F4) + SIN(H4) - SIN(F6) + COS(H6)) / PI()</f>
+        <v>0.403663372327838</v>
       </c>
       <c r="M4" s="0" t="n">
-        <f aca="false">COS(F4) - SIN(G4) + SIN(F5) + COS(G5)</f>
-        <v>1.20596079123359</v>
+        <f aca="false"> (COS(F4) - SIN(G4) + SIN(F5) + COS(G5)) / PI()</f>
+        <v>0.383869242199677</v>
       </c>
       <c r="O4" s="0" t="n">
-        <f aca="false">I4</f>
+        <f aca="false"> I4</f>
         <v>4.955229</v>
       </c>
       <c r="P4" s="0" t="n">
-        <f aca="false">I5</f>
+        <f aca="false"> I5</f>
         <v>8.975059</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <f aca="false">I6</f>
+        <f aca="false"> I6</f>
         <v>9.531173</v>
       </c>
       <c r="S4" s="0" t="n">
-        <f aca="false">F4</f>
+        <f aca="false"> F4</f>
         <v>0.99442</v>
       </c>
       <c r="T4" s="0" t="n">
-        <f aca="false">G5</f>
+        <f aca="false"> G5</f>
         <v>0.993979</v>
       </c>
       <c r="U4" s="0" t="n">
-        <f aca="false">H6</f>
+        <f aca="false"> H6</f>
         <v>0.991756</v>
       </c>
       <c r="W4" s="0" t="n">
@@ -3121,39 +3121,39 @@
         <v>13.978579</v>
       </c>
       <c r="K9" s="0" t="n">
-        <f aca="false">COS(G10) - SIN(H10) + SIN(G11) + COS(H11)</f>
-        <v>1.5118318130308</v>
+        <f aca="false"> (COS(G10) - SIN(H10) + SIN(G11) + COS(H11)) / PI()</f>
+        <v>0.481231012334868</v>
       </c>
       <c r="L9" s="0" t="n">
-        <f aca="false">COS(F9) + SIN(H9) - SIN(F11) + COS(H11)</f>
-        <v>1.46000606255669</v>
+        <f aca="false"> (COS(F9) + SIN(H9) - SIN(F11) + COS(H11)) / PI()</f>
+        <v>0.464734363600065</v>
       </c>
       <c r="M9" s="0" t="n">
-        <f aca="false">COS(F9) - SIN(G9) + SIN(F10) + COS(G10)</f>
-        <v>1.4267826335073</v>
+        <f aca="false"> (COS(F9) - SIN(G9) + SIN(F10) + COS(G10)) / PI()</f>
+        <v>0.454159017680719</v>
       </c>
       <c r="O9" s="0" t="n">
-        <f aca="false">I9</f>
+        <f aca="false"> I9</f>
         <v>13.978579</v>
       </c>
       <c r="P9" s="0" t="n">
-        <f aca="false">I10</f>
+        <f aca="false"> I10</f>
         <v>18.001505</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <f aca="false">I11</f>
+        <f aca="false"> I11</f>
         <v>19.49301</v>
       </c>
       <c r="S9" s="0" t="n">
-        <f aca="false">F9</f>
+        <f aca="false"> F9</f>
         <v>0.974319</v>
       </c>
       <c r="T9" s="0" t="n">
-        <f aca="false">G10</f>
+        <f aca="false"> G10</f>
         <v>0.969861</v>
       </c>
       <c r="U9" s="0" t="n">
-        <f aca="false">H11</f>
+        <f aca="false"> H11</f>
         <v>0.967308</v>
       </c>
       <c r="W9" s="0" t="n">
@@ -3222,39 +3222,39 @@
         <v>22.216936</v>
       </c>
       <c r="K14" s="0" t="n">
-        <f aca="false">COS(G15) - SIN(H15) + SIN(G16) + COS(H16)</f>
-        <v>1.77515420056193</v>
+        <f aca="false"> (COS(G15) - SIN(H15) + SIN(G16) + COS(H16)) / PI()</f>
+        <v>0.565049131539544</v>
       </c>
       <c r="L14" s="0" t="n">
-        <f aca="false">COS(F14) + SIN(H14) - SIN(F16) + COS(H16)</f>
-        <v>1.64834165810974</v>
+        <f aca="false"> (COS(F14) + SIN(H14) - SIN(F16) + COS(H16)) / PI()</f>
+        <v>0.524683445584913</v>
       </c>
       <c r="M14" s="0" t="n">
-        <f aca="false">COS(F14) - SIN(G14) + SIN(F15) + COS(G15)</f>
-        <v>1.68958806739381</v>
+        <f aca="false"> (COS(F14) - SIN(G14) + SIN(F15) + COS(G15)) / PI()</f>
+        <v>0.537812585429613</v>
       </c>
       <c r="O14" s="0" t="n">
-        <f aca="false">I14</f>
+        <f aca="false"> I14</f>
         <v>22.216936</v>
       </c>
       <c r="P14" s="0" t="n">
-        <f aca="false">I15</f>
+        <f aca="false"> I15</f>
         <v>26.400969</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <f aca="false">I16</f>
+        <f aca="false"> I16</f>
         <v>30.337282</v>
       </c>
       <c r="S14" s="0" t="n">
-        <f aca="false">F14</f>
+        <f aca="false"> F14</f>
         <v>0.93876</v>
       </c>
       <c r="T14" s="0" t="n">
-        <f aca="false">G15</f>
+        <f aca="false"> G15</f>
         <v>0.922572</v>
       </c>
       <c r="U14" s="0" t="n">
-        <f aca="false">H16</f>
+        <f aca="false"> H16</f>
         <v>0.927452</v>
       </c>
       <c r="W14" s="0" t="n">
@@ -3323,39 +3323,39 @@
         <v>29.75334</v>
       </c>
       <c r="K19" s="0" t="n">
-        <f aca="false">COS(G20) - SIN(H20) + SIN(G21) + COS(H21)</f>
-        <v>2.05645571720212</v>
+        <f aca="false"> (COS(G20) - SIN(H20) + SIN(G21) + COS(H21)) / PI()</f>
+        <v>0.654590185284614</v>
       </c>
       <c r="L19" s="0" t="n">
-        <f aca="false">COS(F19) + SIN(H19) - SIN(F21) + COS(H21)</f>
-        <v>1.82502322010067</v>
+        <f aca="false"> (COS(F19) + SIN(H19) - SIN(F21) + COS(H21)) / PI()</f>
+        <v>0.580922933473018</v>
       </c>
       <c r="M19" s="0" t="n">
-        <f aca="false">COS(F19) - SIN(G19) + SIN(F20) + COS(G20)</f>
-        <v>1.97740691545334</v>
+        <f aca="false"> (COS(F19) - SIN(G19) + SIN(F20) + COS(G20)) / PI()</f>
+        <v>0.629428170196992</v>
       </c>
       <c r="O19" s="0" t="n">
-        <f aca="false">I19</f>
+        <f aca="false"> I19</f>
         <v>29.75334</v>
       </c>
       <c r="P19" s="0" t="n">
-        <f aca="false">I20</f>
+        <f aca="false"> I20</f>
         <v>33.873562</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <f aca="false">I21</f>
+        <f aca="false"> I21</f>
         <v>42.40424</v>
       </c>
       <c r="S19" s="0" t="n">
-        <f aca="false">F19</f>
+        <f aca="false"> F19</f>
         <v>0.88829</v>
       </c>
       <c r="T19" s="0" t="n">
-        <f aca="false">G20</f>
+        <f aca="false"> G20</f>
         <v>0.848959</v>
       </c>
       <c r="U19" s="0" t="n">
-        <f aca="false">H21</f>
+        <f aca="false"> H21</f>
         <v>0.873505</v>
       </c>
       <c r="W19" s="0" t="n">
@@ -3424,39 +3424,39 @@
         <v>36.276829</v>
       </c>
       <c r="K24" s="0" t="n">
-        <f aca="false">COS(G25) - SIN(H25) + SIN(G26) + COS(H26)</f>
-        <v>2.33882009386468</v>
+        <f aca="false"> (COS(G25) - SIN(H25) + SIN(G26) + COS(H26)) / PI()</f>
+        <v>0.744469557882428</v>
       </c>
       <c r="L24" s="0" t="n">
-        <f aca="false">COS(F24) + SIN(H24) - SIN(F26) + COS(H26)</f>
-        <v>1.9825095345287</v>
+        <f aca="false"> (COS(F24) + SIN(H24) - SIN(F26) + COS(H26)) / PI()</f>
+        <v>0.631052384294111</v>
       </c>
       <c r="M24" s="0" t="n">
-        <f aca="false">COS(F24) - SIN(G24) + SIN(F25) + COS(G25)</f>
-        <v>2.26645021247099</v>
+        <f aca="false"> (COS(F24) - SIN(G24) + SIN(F25) + COS(G25)) / PI()</f>
+        <v>0.72143350917287</v>
       </c>
       <c r="O24" s="0" t="n">
-        <f aca="false">I24</f>
+        <f aca="false"> I24</f>
         <v>36.276829</v>
       </c>
       <c r="P24" s="0" t="n">
-        <f aca="false">I25</f>
+        <f aca="false"> I25</f>
         <v>39.847755</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <f aca="false">I26</f>
+        <f aca="false"> I26</f>
         <v>56.048771</v>
       </c>
       <c r="S24" s="0" t="n">
-        <f aca="false">F24</f>
+        <f aca="false"> F24</f>
         <v>0.825187</v>
       </c>
       <c r="T24" s="0" t="n">
-        <f aca="false">G25</f>
+        <f aca="false"> G25</f>
         <v>0.748937</v>
       </c>
       <c r="U24" s="0" t="n">
-        <f aca="false">H26</f>
+        <f aca="false"> H26</f>
         <v>0.807243</v>
       </c>
       <c r="W24" s="0" t="n">
@@ -3525,39 +3525,39 @@
         <v>42.00333</v>
       </c>
       <c r="K29" s="0" t="n">
-        <f aca="false">COS(G30) - SIN(H30) + SIN(G31) + COS(H31)</f>
-        <v>2.60440082986657</v>
+        <f aca="false"> (COS(G30) - SIN(H30) + SIN(G31) + COS(H31)) / PI()</f>
+        <v>0.829006531731799</v>
       </c>
       <c r="L29" s="0" t="n">
-        <f aca="false">COS(F29) + SIN(H29) - SIN(F31) + COS(H31)</f>
-        <v>2.11349779537442</v>
+        <f aca="false"> (COS(F29) + SIN(H29) - SIN(F31) + COS(H31)) / PI()</f>
+        <v>0.672747242695325</v>
       </c>
       <c r="M29" s="0" t="n">
-        <f aca="false">COS(F29) - SIN(G29) + SIN(F30) + COS(G30)</f>
-        <v>2.53810140472357</v>
+        <f aca="false"> (COS(F29) - SIN(G29) + SIN(F30) + COS(G30)) / PI()</f>
+        <v>0.807902769260479</v>
       </c>
       <c r="O29" s="0" t="n">
-        <f aca="false">I29</f>
+        <f aca="false"> I29</f>
         <v>42.00333</v>
       </c>
       <c r="P29" s="0" t="n">
-        <f aca="false">I30</f>
+        <f aca="false"> I30</f>
         <v>43.742077</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <f aca="false">I31</f>
+        <f aca="false"> I31</f>
         <v>71.359337</v>
       </c>
       <c r="S29" s="0" t="n">
-        <f aca="false">F29</f>
+        <f aca="false"> F29</f>
         <v>0.751829</v>
       </c>
       <c r="T29" s="0" t="n">
-        <f aca="false">G30</f>
+        <f aca="false"> G30</f>
         <v>0.623706</v>
       </c>
       <c r="U29" s="0" t="n">
-        <f aca="false">H31</f>
+        <f aca="false"> H31</f>
         <v>0.730852</v>
       </c>
       <c r="W29" s="0" t="n">
@@ -3626,39 +3626,39 @@
         <v>47.13451</v>
       </c>
       <c r="K34" s="0" t="n">
-        <f aca="false">COS(G35) - SIN(H35) + SIN(G36) + COS(H36)</f>
-        <v>2.83617212160901</v>
+        <f aca="false"> (COS(G35) - SIN(H35) + SIN(G36) + COS(H36)) / PI()</f>
+        <v>0.902781625227004</v>
       </c>
       <c r="L34" s="0" t="n">
-        <f aca="false">COS(F34) + SIN(H34) - SIN(F36) + COS(H36)</f>
-        <v>2.21082034273706</v>
+        <f aca="false"> (COS(F34) + SIN(H34) - SIN(F36) + COS(H36)) / PI()</f>
+        <v>0.703725971669444</v>
       </c>
       <c r="M34" s="0" t="n">
-        <f aca="false">COS(F34) - SIN(G34) + SIN(F35) + COS(G35)</f>
-        <v>2.77815249326638</v>
+        <f aca="false"> (COS(F34) - SIN(G34) + SIN(F35) + COS(G35)) / PI()</f>
+        <v>0.884313403932835</v>
       </c>
       <c r="O34" s="0" t="n">
-        <f aca="false">I34</f>
+        <f aca="false"> I34</f>
         <v>47.13451</v>
       </c>
       <c r="P34" s="0" t="n">
-        <f aca="false">I35</f>
+        <f aca="false"> I35</f>
         <v>44.754665</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <f aca="false">I36</f>
+        <f aca="false"> I36</f>
         <v>88.142296</v>
       </c>
       <c r="S34" s="0" t="n">
-        <f aca="false">F34</f>
+        <f aca="false"> F34</f>
         <v>0.669764</v>
       </c>
       <c r="T34" s="0" t="n">
-        <f aca="false">G35</f>
+        <f aca="false"> G35</f>
         <v>0.474241</v>
       </c>
       <c r="U34" s="0" t="n">
-        <f aca="false">H36</f>
+        <f aca="false"> H36</f>
         <v>0.646851</v>
       </c>
       <c r="W34" s="0" t="n">
@@ -3727,39 +3727,39 @@
         <v>51.910461</v>
       </c>
       <c r="K39" s="0" t="n">
-        <f aca="false">COS(G40) - SIN(H40) + SIN(G41) + COS(H41)</f>
-        <v>3.01566417911967</v>
+        <f aca="false"> (COS(G40) - SIN(H40) + SIN(G41) + COS(H41)) / PI()</f>
+        <v>0.959915721624117</v>
       </c>
       <c r="L39" s="0" t="n">
-        <f aca="false">COS(F39) + SIN(H39) - SIN(F41) + COS(H41)</f>
-        <v>2.27198507054986</v>
+        <f aca="false"> (COS(F39) + SIN(H39) - SIN(F41) + COS(H41)) / PI()</f>
+        <v>0.723195309217997</v>
       </c>
       <c r="M39" s="0" t="n">
-        <f aca="false">COS(F39) - SIN(G39) + SIN(F40) + COS(G40)</f>
-        <v>2.96410959801848</v>
+        <f aca="false"> (COS(F39) - SIN(G39) + SIN(F40) + COS(G40)) / PI()</f>
+        <v>0.943505388781544</v>
       </c>
       <c r="O39" s="0" t="n">
-        <f aca="false">I39</f>
+        <f aca="false"> I39</f>
         <v>51.910461</v>
       </c>
       <c r="P39" s="0" t="n">
-        <f aca="false">I40</f>
+        <f aca="false"> I40</f>
         <v>42.326672</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <f aca="false">I41</f>
+        <f aca="false"> I41</f>
         <v>106.153252</v>
       </c>
       <c r="S39" s="0" t="n">
-        <f aca="false">F39</f>
+        <f aca="false"> F39</f>
         <v>0.582992</v>
       </c>
       <c r="T39" s="0" t="n">
-        <f aca="false">G40</f>
+        <f aca="false"> G40</f>
         <v>0.306633</v>
       </c>
       <c r="U39" s="0" t="n">
-        <f aca="false">H41</f>
+        <f aca="false"> H41</f>
         <v>0.55801</v>
       </c>
       <c r="W39" s="0" t="n">
@@ -3828,39 +3828,39 @@
         <v>56.704136</v>
       </c>
       <c r="K44" s="0" t="n">
-        <f aca="false">COS(G45) - SIN(H45) + SIN(G46) + COS(H46)</f>
-        <v>3.12926983600142</v>
+        <f aca="false"> (COS(G45) - SIN(H45) + SIN(G46) + COS(H46)) / PI()</f>
+        <v>0.99607752533598</v>
       </c>
       <c r="L44" s="0" t="n">
-        <f aca="false">COS(F44) + SIN(H44) - SIN(F46) + COS(H46)</f>
-        <v>2.29634234779483</v>
+        <f aca="false"> (COS(F44) + SIN(H44) - SIN(F46) + COS(H46)) / PI()</f>
+        <v>0.730948471365592</v>
       </c>
       <c r="M44" s="0" t="n">
-        <f aca="false">COS(F44) - SIN(G44) + SIN(F45) + COS(G45)</f>
-        <v>3.08422138849006</v>
+        <f aca="false"> (COS(F44) - SIN(G44) + SIN(F45) + COS(G45)) / PI()</f>
+        <v>0.981738159135884</v>
       </c>
       <c r="O44" s="0" t="n">
-        <f aca="false">I44</f>
+        <f aca="false"> I44</f>
         <v>56.704136</v>
       </c>
       <c r="P44" s="0" t="n">
-        <f aca="false">I45</f>
+        <f aca="false"> I45</f>
         <v>35.632458</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <f aca="false">I46</f>
+        <f aca="false"> I46</f>
         <v>124.57077</v>
       </c>
       <c r="S44" s="0" t="n">
-        <f aca="false">F44</f>
+        <f aca="false"> F44</f>
         <v>0.493787</v>
       </c>
       <c r="T44" s="0" t="n">
-        <f aca="false">G45</f>
+        <f aca="false"> G45</f>
         <v>0.125374</v>
       </c>
       <c r="U44" s="0" t="n">
-        <f aca="false">H46</f>
+        <f aca="false"> H46</f>
         <v>0.467254</v>
       </c>
       <c r="W44" s="0" t="n">
@@ -3929,39 +3929,39 @@
         <v>61.952599</v>
       </c>
       <c r="K49" s="0" t="n">
-        <f aca="false">COS(G50) - SIN(H50) + SIN(G51) + COS(H51)</f>
-        <v>3.16677268783162</v>
+        <f aca="false"> (COS(G50) - SIN(H50) + SIN(G51) + COS(H51)) / PI()</f>
+        <v>1.00801505383362</v>
       </c>
       <c r="L49" s="0" t="n">
-        <f aca="false">COS(F49) + SIN(H49) - SIN(F51) + COS(H51)</f>
-        <v>2.28645298242801</v>
+        <f aca="false"> (COS(F49) + SIN(H49) - SIN(F51) + COS(H51)) / PI()</f>
+        <v>0.727800588601249</v>
       </c>
       <c r="M49" s="0" t="n">
-        <f aca="false">COS(F49) - SIN(G49) + SIN(F50) + COS(G50)</f>
-        <v>3.12977685720643</v>
+        <f aca="false"> (COS(F49) - SIN(G49) + SIN(F50) + COS(G50)) / PI()</f>
+        <v>0.99623891519804</v>
       </c>
       <c r="O49" s="0" t="n">
-        <f aca="false">I49</f>
+        <f aca="false"> I49</f>
         <v>61.952599</v>
       </c>
       <c r="P49" s="0" t="n">
-        <f aca="false">I50</f>
+        <f aca="false"> I50</f>
         <v>24.575504</v>
       </c>
       <c r="Q49" s="0" t="n">
-        <f aca="false">I51</f>
+        <f aca="false"> I51</f>
         <v>142.868103</v>
       </c>
       <c r="S49" s="0" t="n">
-        <f aca="false">F49</f>
+        <f aca="false"> F49</f>
         <v>0.404016</v>
       </c>
       <c r="T49" s="0" t="n">
-        <f aca="false">G50</f>
+        <f aca="false"> G50</f>
         <v>-0.064976</v>
       </c>
       <c r="U49" s="0" t="n">
-        <f aca="false">H51</f>
+        <f aca="false"> H51</f>
         <v>0.377576</v>
       </c>
       <c r="W49" s="0" t="n">
@@ -4030,39 +4030,39 @@
         <v>68.203056</v>
       </c>
       <c r="K54" s="0" t="n">
-        <f aca="false">COS(G55) - SIN(H55) + SIN(G56) + COS(H56)</f>
-        <v>3.12373440342713</v>
+        <f aca="false"> (COS(G55) - SIN(H55) + SIN(G56) + COS(H56)) / PI()</f>
+        <v>0.994315542423283</v>
       </c>
       <c r="L54" s="0" t="n">
-        <f aca="false">COS(F54) + SIN(H54) - SIN(F56) + COS(H56)</f>
-        <v>2.25126366104893</v>
+        <f aca="false"> (COS(F54) + SIN(H54) - SIN(F56) + COS(H56)) / PI()</f>
+        <v>0.716599479718188</v>
       </c>
       <c r="M54" s="0" t="n">
-        <f aca="false">COS(F54) - SIN(G54) + SIN(F55) + COS(G55)</f>
-        <v>3.0944122260313</v>
+        <f aca="false"> (COS(F54) - SIN(G54) + SIN(F55) + COS(G55)) / PI()</f>
+        <v>0.984982003473754</v>
       </c>
       <c r="O54" s="0" t="n">
-        <f aca="false">I54</f>
+        <f aca="false"> I54</f>
         <v>68.203056</v>
       </c>
       <c r="P54" s="0" t="n">
-        <f aca="false">I55</f>
+        <f aca="false"> I55</f>
         <v>8.752989</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <f aca="false">I56</f>
+        <f aca="false"> I56</f>
         <v>159.579651</v>
       </c>
       <c r="S54" s="0" t="n">
-        <f aca="false">F54</f>
+        <f aca="false"> F54</f>
         <v>0.317453</v>
       </c>
       <c r="T54" s="0" t="n">
-        <f aca="false">G55</f>
+        <f aca="false"> G55</f>
         <v>-0.255538</v>
       </c>
       <c r="U54" s="0" t="n">
-        <f aca="false">H56</f>
+        <f aca="false"> H56</f>
         <v>0.291934</v>
       </c>
       <c r="W54" s="0" t="n">
